--- a/enfermedades.xlsx
+++ b/enfermedades.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCR\Sistemas expertos\Lab2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03EA2F3-C1D0-496B-A1F0-FAA440C438A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+  <si>
+    <t>Enfermerdades</t>
+  </si>
+  <si>
+    <t>Sintoma1</t>
+  </si>
+  <si>
+    <t>Sintoma2</t>
+  </si>
+  <si>
+    <t>Sintoma3</t>
+  </si>
+  <si>
+    <t>Antracnosis</t>
+  </si>
+  <si>
+    <t>Sigatoka Negra (en banano)</t>
+  </si>
+  <si>
+    <t>Pudrición del Cogollo (en palma aceitera)</t>
+  </si>
+  <si>
+    <t>Roya del café</t>
+  </si>
+  <si>
+    <t>Mancha del asfalto (en cítricos)</t>
+  </si>
+  <si>
+    <t>Marchitez por Fusarium (en tomates)</t>
+  </si>
+  <si>
+    <t>Podredumbre negra (en piña)</t>
+  </si>
+  <si>
+    <t>Mancha angular (en frijoles)</t>
+  </si>
+  <si>
+    <t>Oídio</t>
+  </si>
+  <si>
+    <t>Mancha negra</t>
+  </si>
+  <si>
+    <t>Virosis (Virus del mosaico)</t>
+  </si>
+  <si>
+    <t>Fusariosis (Fusarium)</t>
+  </si>
+  <si>
+    <t>Manchas oscuras en hojas y frutos</t>
+  </si>
+  <si>
+    <t>Pudrición</t>
+  </si>
+  <si>
+    <t>Manchas negras alargadas en hojas</t>
+  </si>
+  <si>
+    <t>Reducción del área foliar</t>
+  </si>
+  <si>
+    <t>Marchitez</t>
+  </si>
+  <si>
+    <t>Necrosis del cogollo</t>
+  </si>
+  <si>
+    <t>Hojas jovenes no se abren</t>
+  </si>
+  <si>
+    <t>Pústulas de color naranja en la parte inferior de las hojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchas negras circulares en frutos y hojas </t>
+  </si>
+  <si>
+    <t>Caída prematura de frutos</t>
+  </si>
+  <si>
+    <t>Decoloración de tallos y raíces</t>
+  </si>
+  <si>
+    <t>Pérdida de vigor</t>
+  </si>
+  <si>
+    <t>Manchas oscuras en la base del fruto</t>
+  </si>
+  <si>
+    <t>Pudrición acuosa</t>
+  </si>
+  <si>
+    <t>Manchas amarillas o marrones en hojas</t>
+  </si>
+  <si>
+    <t>Formación de lesiones</t>
+  </si>
+  <si>
+    <t>Polvo blanco o gris en hojas</t>
+  </si>
+  <si>
+    <t>Tallos deformes</t>
+  </si>
+  <si>
+    <t>Manchas negras en las hojas</t>
+  </si>
+  <si>
+    <t>Caída prematura de las hojas</t>
+  </si>
+  <si>
+    <t>Patrones de mosaico en las hojas</t>
+  </si>
+  <si>
+    <t>Deformación de hojas y frutos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +153,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +196,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +508,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>